--- a/WebRoot/yonghudaoru/mobangong.xlsx
+++ b/WebRoot/yonghudaoru/mobangong.xlsx
@@ -8,10 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="360Qex" sheetId="5" state="hidden" r:id="rId1"/>
-    <sheet name="qiye" sheetId="9" r:id="rId2"/>
+    <sheet name="qiye3" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">qiye!$A$1:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">qiye3!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -475,7 +475,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
